--- a/data/JAM/10011.xlsx
+++ b/data/JAM/10011.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,13 +64,13 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">%stat</t>
+    <t xml:space="preserve">%ptp</t>
   </si>
   <si>
     <t xml:space="preserve">%syst</t>
   </si>
   <si>
-    <t xml:space="preserve">%dFST_u</t>
+    <t xml:space="preserve">%stat_u</t>
   </si>
   <si>
     <t xml:space="preserve">%dFSR_u</t>
@@ -289,12 +289,12 @@
   <dimension ref="A1:AM692"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A692"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.5969387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
